--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4377,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5007,12 +5007,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5973,12 +5973,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6015,12 +6015,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7695,12 +7695,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8665,12 +8665,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8707,12 +8707,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9677,12 +9677,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9845,12 +9845,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10647,12 +10647,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10815,12 +10815,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11109,12 +11109,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11319,12 +11319,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11655,12 +11655,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12423,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12591,12 +12591,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12633,12 +12633,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12675,12 +12675,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13183,12 +13183,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13603,12 +13603,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13771,12 +13771,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13813,12 +13813,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13939,12 +13939,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14527,12 +14527,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14821,12 +14821,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14863,12 +14863,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15493,12 +15493,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16291,12 +16291,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17425,12 +17425,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
